--- a/biology/Botanique/Liste_de_plantes_cultivées/Liste_de_plantes_cultivées.xlsx
+++ b/biology/Botanique/Liste_de_plantes_cultivées/Liste_de_plantes_cultivées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des plantes cultivées recense les plantes cultivées par les humains dans le but de produire de l'alimentation, des plantes d'ornement, des matériaux de construction (bois, paille), de l'énergie (bois de feu, éthanol, biogazole), des fibres (fibres textiles, matériaux d'isolation), des médicaments et des drogues récréatives (plantes médicinales, plantes psychotropes).
 Sommaire :
@@ -521,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,7 +551,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abricotier
 Acacia
@@ -591,7 +605,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -609,7 +623,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bananier
 Basilic
@@ -655,7 +671,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -673,7 +689,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacaoyer
 Caféier
@@ -746,7 +764,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -764,7 +782,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dattier
 Sommaire :
@@ -804,7 +824,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -822,7 +842,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Endive
 Épinard
@@ -866,7 +888,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -884,7 +906,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Fraisier
 Framboisier
@@ -926,7 +950,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -944,7 +968,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Géranium
 Gentiane
@@ -992,7 +1018,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1010,7 +1036,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Houblon
 Haricot
@@ -1051,7 +1079,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1069,7 +1097,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Iris
 Sommaire :
@@ -1109,7 +1139,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1127,7 +1157,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Jasmin
 Sommaire :
@@ -1167,7 +1199,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1185,7 +1217,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Kaki
 Kiwi
@@ -1227,7 +1261,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1245,7 +1279,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Laitue
 Laurier
@@ -1295,7 +1331,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1313,7 +1349,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Mâche
 Maïs (Doux, Ensilage ou Grain)
@@ -1364,7 +1402,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1382,7 +1420,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Navet
 Navette d'hiver
@@ -1427,7 +1467,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1445,7 +1485,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Œillette
 Oignon
@@ -1491,7 +1533,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1509,7 +1551,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Pastèque
 Patate douce
@@ -1564,7 +1608,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1582,7 +1626,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Radis
 Raifort
@@ -1629,7 +1675,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1647,7 +1693,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Safran
 Salade
@@ -1696,7 +1744,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1714,7 +1762,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Thé
 Thuya
@@ -1763,7 +1813,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_cultiv%C3%A9es</t>
+          <t>Liste_de_plantes_cultivées</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1781,7 +1831,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Vanille
 Verveine
